--- a/2_consolidado_instrutor_projeto.xlsx
+++ b/2_consolidado_instrutor_projeto.xlsx
@@ -495,25 +495,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>14</v>
@@ -526,22 +526,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -560,28 +560,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>14</v>
@@ -597,10 +597,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -609,16 +609,16 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>14</v>
@@ -665,25 +665,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>14</v>
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -714,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -736,25 +736,25 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -779,13 +779,13 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>14</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -813,16 +813,16 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -832,22 +832,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -869,28 +869,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -921,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +937,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -971,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1039,28 +1039,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1085,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>11</v>

--- a/2_consolidado_instrutor_projeto.xlsx
+++ b/2_consolidado_instrutor_projeto.xlsx
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -507,13 +507,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>14</v>
@@ -529,25 +529,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
         <v>4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>14</v>
@@ -566,25 +566,25 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -597,25 +597,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>14</v>
@@ -628,28 +628,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>14</v>
@@ -671,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>14</v>
@@ -696,28 +696,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>14</v>
@@ -733,28 +733,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -773,19 +773,19 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>14</v>
@@ -807,19 +807,19 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>13</v>
@@ -832,25 +832,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -866,28 +866,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>14</v>
@@ -900,28 +900,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>13</v>
@@ -940,22 +940,22 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>12</v>
@@ -977,19 +977,19 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>11</v>
@@ -1008,22 +1008,22 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>11</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -1051,16 +1051,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1073,28 +1073,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/2_consolidado_instrutor_projeto.xlsx
+++ b/2_consolidado_instrutor_projeto.xlsx
@@ -495,25 +495,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>14</v>
@@ -529,13 +529,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -544,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>14</v>
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -575,16 +575,16 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -628,28 +628,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>14</v>
@@ -665,28 +665,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -714,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>14</v>
@@ -730,31 +730,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -779,13 +779,13 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>14</v>
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -838,22 +838,22 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>14</v>
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -937,25 +937,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>12</v>
@@ -971,22 +971,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1017,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>11</v>
@@ -1039,22 +1039,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1073,25 +1073,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>12</v>

--- a/2_consolidado_instrutor_projeto.xlsx
+++ b/2_consolidado_instrutor_projeto.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PAM26</t>
+          <t>PAM</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
